--- a/i360db/0.9.5/i360db.xlsx
+++ b/i360db/0.9.5/i360db.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Files\My Programs\موسوعات إسلامية_عربية\_Sprints\AppGyver\_db\i360db\0.9.5\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED78B1E3-2E12-4096-85FF-C2EE16E9883F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20610" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sciences" sheetId="1" r:id="rId1"/>
@@ -22,20 +16,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Complements!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sciences!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="114210" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -951,9 +932,6 @@
     <t>«قصص الأنبياء»</t>
   </si>
   <si>
-    <t>https://ketabonline.com/books/6005</t>
-  </si>
-  <si>
     <t>ContentEdition</t>
   </si>
   <si>
@@ -981,7 +959,10 @@
     <t>dribbble</t>
   </si>
   <si>
-    <t>طبعة @ 2023/04/27 م - 1444/10/07 هـ</t>
+    <t>https://ketabonline.com/books/941</t>
+  </si>
+  <si>
+    <t>طبعة @ 2023/05/07 م - 1444/10/17 هـ</t>
   </si>
   <si>
     <t>0.9.5</t>
@@ -990,13 +971,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1161,14 +1142,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1215,7 +1188,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1247,27 +1220,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1299,24 +1254,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1492,7 +1429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1502,7 +1439,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" customWidth="1"/>
@@ -1512,7 +1449,7 @@
     <col min="10" max="13" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
@@ -1553,7 +1490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1595,7 +1532,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1637,7 +1574,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1679,7 +1616,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1709,19 +1646,19 @@
         <v>15</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1763,7 +1700,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1805,7 +1742,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1847,7 +1784,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1889,7 +1826,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1931,7 +1868,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -1973,7 +1910,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -2015,7 +1952,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -2057,7 +1994,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -2099,7 +2036,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -2141,7 +2078,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -2183,7 +2120,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -2225,7 +2162,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -2267,7 +2204,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -2309,7 +2246,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -2351,7 +2288,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -2393,7 +2330,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -2435,7 +2372,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -2477,7 +2414,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -2519,7 +2456,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -2561,7 +2498,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -2603,7 +2540,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -2645,7 +2582,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -2672,7 +2609,7 @@
         <v>21</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>19</v>
@@ -2687,7 +2624,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -2729,7 +2666,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -2756,7 +2693,7 @@
         <v>164</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J30" s="8" t="s">
         <v>131</v>
@@ -2771,7 +2708,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -2813,7 +2750,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -2855,7 +2792,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -2882,7 +2819,7 @@
         <v>152</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>113</v>
@@ -2897,7 +2834,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -2924,7 +2861,7 @@
         <v>179</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J34" s="8" t="s">
         <v>142</v>
@@ -2939,7 +2876,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -2981,7 +2918,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36" s="11">
         <v>35</v>
       </c>
@@ -3008,7 +2945,7 @@
         <v>162</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J36" s="8" t="s">
         <v>163</v>
@@ -3023,7 +2960,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -3065,7 +3002,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38" s="11">
         <v>37</v>
       </c>
@@ -3092,7 +3029,7 @@
         <v>144</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J38" s="8" t="s">
         <v>117</v>
@@ -3107,7 +3044,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13">
       <c r="A39" s="11">
         <v>38</v>
       </c>
@@ -3149,7 +3086,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13">
       <c r="A40" s="11">
         <v>39</v>
       </c>
@@ -3176,7 +3113,7 @@
         <v>157</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J40" s="8" t="s">
         <v>127</v>
@@ -3191,7 +3128,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13">
       <c r="A41" s="11">
         <v>40</v>
       </c>
@@ -3218,7 +3155,7 @@
         <v>151</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>118</v>
@@ -3233,7 +3170,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13">
       <c r="A42" s="11">
         <v>41</v>
       </c>
@@ -3260,7 +3197,7 @@
         <v>155</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J42" s="8" t="s">
         <v>126</v>
@@ -3275,7 +3212,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13">
       <c r="A43" s="11">
         <v>42</v>
       </c>
@@ -3317,7 +3254,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13">
       <c r="A44" s="11">
         <v>43</v>
       </c>
@@ -3359,7 +3296,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13">
       <c r="A45" s="11">
         <v>44</v>
       </c>
@@ -3386,7 +3323,7 @@
         <v>161</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J45" s="8" t="s">
         <v>124</v>
@@ -3401,7 +3338,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13">
       <c r="A46" s="11">
         <v>45</v>
       </c>
@@ -3443,7 +3380,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13">
       <c r="A47" s="11">
         <v>46</v>
       </c>
@@ -3485,7 +3422,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13">
       <c r="A48" s="11">
         <v>47</v>
       </c>
@@ -3527,7 +3464,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13">
       <c r="A49" s="11">
         <v>48</v>
       </c>
@@ -3554,7 +3491,7 @@
         <v>177</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J49" s="8" t="s">
         <v>141</v>
@@ -3569,7 +3506,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13">
       <c r="A50" s="11">
         <v>49</v>
       </c>
@@ -3596,7 +3533,7 @@
         <v>147</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J50" s="8" t="s">
         <v>122</v>
@@ -3611,7 +3548,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13">
       <c r="A51" s="11">
         <v>50</v>
       </c>
@@ -3653,7 +3590,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13">
       <c r="A52" s="11">
         <v>51</v>
       </c>
@@ -3695,7 +3632,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13">
       <c r="A53" s="11">
         <v>52</v>
       </c>
@@ -3737,7 +3674,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13">
       <c r="A54" s="11">
         <v>53</v>
       </c>
@@ -3779,7 +3716,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13">
       <c r="A55" s="11">
         <v>54</v>
       </c>
@@ -3821,7 +3758,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13">
       <c r="A56" s="11">
         <v>55</v>
       </c>
@@ -3863,7 +3800,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13">
       <c r="A57" s="11">
         <v>56</v>
       </c>
@@ -3905,7 +3842,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13">
       <c r="A58" s="11">
         <v>57</v>
       </c>
@@ -3947,7 +3884,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13">
       <c r="A59" s="11">
         <v>58</v>
       </c>
@@ -3989,7 +3926,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13">
       <c r="A60" s="11">
         <v>59</v>
       </c>
@@ -4010,7 +3947,7 @@
         <v>9.0399999999999991</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H60" s="17" t="s">
         <v>313</v>
@@ -4031,7 +3968,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13">
       <c r="A61" s="11">
         <v>60</v>
       </c>
@@ -4073,7 +4010,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13">
       <c r="A62" s="11">
         <v>61</v>
       </c>
@@ -4115,7 +4052,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13">
       <c r="A63" s="11">
         <v>62</v>
       </c>
@@ -4157,7 +4094,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13">
       <c r="A64" s="11">
         <v>63</v>
       </c>
@@ -4199,7 +4136,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13">
       <c r="A65" s="11">
         <v>64</v>
       </c>
@@ -4241,7 +4178,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13">
       <c r="A66" s="11">
         <v>65</v>
       </c>
@@ -4283,7 +4220,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13">
       <c r="A67" s="11">
         <v>66</v>
       </c>
@@ -4325,7 +4262,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13">
       <c r="A68" s="11">
         <v>67</v>
       </c>
@@ -4367,7 +4304,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13">
       <c r="A69" s="13">
         <f>SUBTOTAL(2,A2:A68)</f>
         <v>67</v>
@@ -4378,21 +4315,21 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M68" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L57">
+  <autoFilter ref="A1:M68">
+    <sortState ref="A2:L57">
       <sortCondition ref="A1:A57"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J64" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K64" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="L64" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="M64" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="J5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="K5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="L5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="M5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="J64" r:id="rId1"/>
+    <hyperlink ref="K64" r:id="rId2"/>
+    <hyperlink ref="L64" r:id="rId3"/>
+    <hyperlink ref="M64" r:id="rId4"/>
+    <hyperlink ref="J5" r:id="rId5"/>
+    <hyperlink ref="K5" r:id="rId6"/>
+    <hyperlink ref="L5" r:id="rId7"/>
+    <hyperlink ref="M5" r:id="rId8"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.47244094488188981" header="0.23622047244094491" footer="0.23622047244094491"/>
@@ -4405,7 +4342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4413,21 +4350,21 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="5" width="24.7109375" customWidth="1"/>
     <col min="6" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>286</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>307</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>308</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>284</v>
@@ -4439,18 +4376,18 @@
         <v>291</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>289</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>288</v>
@@ -4459,40 +4396,40 @@
         <v>287</v>
       </c>
       <c r="F2" s="16">
-        <f>DATEVALUE(MID(Sciences!$H60,(FIND("طبعة @ ",Sciences!$H60)+7),10))</f>
-        <v>45043</v>
+        <f ca="1">DATEVALUE(MID(Sciences!$H60,(FIND("طبعة @ ",Sciences!$H60)+7),10))</f>
+        <v>45053</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="15" t="s">
         <v>290</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="B5" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="C6" s="18" t="s">
         <v>310</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C6" s="18" t="s">
-        <v>311</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G2" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:G2"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId3"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.47244094488188981" bottom="0.47244094488188981" header="0.23622047244094491" footer="0.23622047244094491"/>
